--- a/xlsx/cantilever_quad.xlsx
+++ b/xlsx/cantilever_quad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\incompressible\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F6F06A-5160-4915-A3A7-7F9A3082138F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FB6659-1E3F-4EBD-B971-CB04F1883523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="4" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="5" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SJ" sheetId="2" r:id="rId3"/>
     <sheet name="BKYSJ" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="TZZ" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>ndiv</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,12 +70,57 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>非0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>₁₀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="179" formatCode="0.0000000000"/>
+    <numFmt numFmtId="180" formatCode="0.00000000000"/>
+    <numFmt numFmtId="182" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="183" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="198" formatCode="0.00000000000_);[Red]\(0.00000000000\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +157,13 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,11 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,11 +522,11 @@
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -478,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -492,7 +550,7 @@
         <v>-0.70363459047246735</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -506,7 +564,7 @@
         <v>-1.0046645426797685</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32</v>
       </c>
@@ -520,7 +578,7 @@
         <v>-1.3056964017175654</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -556,11 +614,11 @@
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -570,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -584,7 +642,7 @@
         <v>6.7369470098027138E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -598,7 +656,7 @@
         <v>1.7897254563524521E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32</v>
       </c>
@@ -612,7 +670,7 @@
         <v>5.8743782164840325E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -648,11 +706,11 @@
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -662,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -676,7 +734,7 @@
         <v>-0.6921577759772547</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -690,7 +748,7 @@
         <v>-0.99137331700110032</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32</v>
       </c>
@@ -704,7 +762,7 @@
         <v>-1.2920747483074315</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -740,11 +798,11 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -754,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -765,10 +823,10 @@
         <v>-1.8760224176444313</v>
       </c>
       <c r="D2">
-        <v>-0.0009984143165449695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-9.9841431654496948E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -779,10 +837,10 @@
         <v>-2.484557312409795</v>
       </c>
       <c r="D3">
-        <v>-0.004144048513523645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-4.1440485135236446E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32</v>
       </c>
@@ -790,13 +848,13 @@
         <v>-0.42596873227228116</v>
       </c>
       <c r="C4">
-        <v>-3.088319069176361</v>
+        <v>-3.0883190691763609</v>
       </c>
       <c r="D4">
-        <v>-0.016349639906934686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-1.6349639906934686E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -807,7 +865,7 @@
         <v>-3.6904991457294165</v>
       </c>
       <c r="D5">
-        <v>-0.05936843266578992</v>
+        <v>-5.9368432665789922E-2</v>
       </c>
     </row>
   </sheetData>
@@ -821,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20362CB4-D1C4-435E-83F4-54649B95DDB3}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -832,11 +890,11 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -846,7 +904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -857,10 +915,10 @@
         <v>-1.8813767801200931</v>
       </c>
       <c r="D2">
-        <v>-0.00044298144932634084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-4.4298144932634084E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -868,13 +926,13 @@
         <v>-0.12493873660829995</v>
       </c>
       <c r="C3">
-        <v>-2.489555054189242</v>
+        <v>-2.4895550541892422</v>
       </c>
       <c r="D3">
-        <v>-0.0017465777807411066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-1.7465777807411066E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32</v>
       </c>
@@ -888,7 +946,7 @@
         <v>-6.8724798527335313E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -899,7 +957,7 @@
         <v>-3.6952100675365642</v>
       </c>
       <c r="D5">
-        <v>-0.02621251566827119</v>
+        <v>-2.6212515668271191E-2</v>
       </c>
     </row>
   </sheetData>
@@ -907,4 +965,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9121D-876C-401F-BB56-84678718DE70}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>594</v>
+      </c>
+      <c r="C2">
+        <v>262</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6794.2616365211197</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.8321422668656999</v>
+      </c>
+      <c r="F2">
+        <v>0.17609125905568124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2210</v>
+      </c>
+      <c r="C3">
+        <v>1030</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37499.749990960503</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.57402837231683</v>
+      </c>
+      <c r="F3">
+        <v>-0.12493873660829995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>8514</v>
+      </c>
+      <c r="C4">
+        <v>4101</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6643.9114701749904</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.8224238368632402</v>
+      </c>
+      <c r="F4">
+        <v>-0.42596873227228116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>-0.7269987279362623</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xlsx/cantilever_quad.xlsx
+++ b/xlsx/cantilever_quad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\incompressible\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FB6659-1E3F-4EBD-B971-CB04F1883523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D78186-DF19-42AF-ABC7-B2DC224A8B5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="5" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView minimized="1" xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="5" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -113,12 +113,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="179" formatCode="0.0000000000"/>
-    <numFmt numFmtId="180" formatCode="0.00000000000"/>
-    <numFmt numFmtId="182" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="183" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="198" formatCode="0.00000000000_);[Red]\(0.00000000000\)"/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0000000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="180" formatCode="0.00000000000_);[Red]\(0.00000000000\)"/>
+    <numFmt numFmtId="181" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -185,16 +187,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -969,10 +973,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9121D-876C-401F-BB56-84678718DE70}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1073,189 @@
         <v>-0.7269987279362623</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>594</v>
+      </c>
+      <c r="C8">
+        <v>336</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2.1997712291374599E-4</v>
+      </c>
+      <c r="E8">
+        <v>-3.6576224824002002</v>
+      </c>
+      <c r="F8">
+        <v>0.17609125905568124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2210</v>
+      </c>
+      <c r="C9">
+        <v>1185</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3.0250135995346901E-3</v>
+      </c>
+      <c r="E9">
+        <v>-2.5192726685521398</v>
+      </c>
+      <c r="F9">
+        <v>-0.12493873660829995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>-0.42596873227228116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>-0.7269987279362623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>162</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.12667790463796</v>
+      </c>
+      <c r="E14">
+        <v>5.1799777420045399E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.17609125905568124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>587</v>
+      </c>
+      <c r="C15">
+        <v>269</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7.5919783243575703</v>
+      </c>
+      <c r="E15">
+        <v>0.88035495947912301</v>
+      </c>
+      <c r="F15">
+        <v>-0.12493873660829995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2178</v>
+      </c>
+      <c r="C16">
+        <v>1030</v>
+      </c>
+      <c r="D16" s="8">
+        <v>103.922036596008</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.01670764916717</v>
+      </c>
+      <c r="F16">
+        <v>-0.42596873227228116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>8450</v>
+      </c>
+      <c r="C17">
+        <v>4102</v>
+      </c>
+      <c r="D17" s="8">
+        <v>79.147110008831007</v>
+      </c>
+      <c r="E17">
+        <v>1.89843506158458</v>
+      </c>
+      <c r="F17">
+        <v>-0.7269987279362623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>162</v>
+      </c>
+      <c r="C20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>587</v>
+      </c>
+      <c r="C21">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>2178</v>
+      </c>
+      <c r="C22">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>8450</v>
+      </c>
+      <c r="C23">
+        <v>4102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/cantilever_quad.xlsx
+++ b/xlsx/cantilever_quad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\incompressible\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D78186-DF19-42AF-ABC7-B2DC224A8B5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47A2139-878D-40A3-8054-82FEDA0BDA3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="5" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="5" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>₁₀</t>
+      <t>₁₀(</t>
     </r>
     <r>
       <rPr>
@@ -104,7 +104,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>min</t>
+      <t>min)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,14 +113,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000000000"/>
     <numFmt numFmtId="177" formatCode="0.00000000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000000"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="180" formatCode="0.00000000000_);[Red]\(0.00000000000\)"/>
     <numFmt numFmtId="181" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="185" formatCode="0.000000000000"/>
+    <numFmt numFmtId="182" formatCode="0.000000000000"/>
+    <numFmt numFmtId="201" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -187,18 +186,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -973,10 +971,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C9121D-876C-401F-BB56-84678718DE70}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1010,16 +1008,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>594</v>
+        <v>162</v>
       </c>
       <c r="C2">
-        <v>262</v>
-      </c>
-      <c r="D2" s="6">
-        <v>6794.2616365211197</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.8321422668656999</v>
+        <v>68</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1740.29150395944</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1.62031099999119</v>
       </c>
       <c r="F2">
         <v>0.17609125905568124</v>
@@ -1030,16 +1028,16 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>2210</v>
+        <v>587</v>
       </c>
       <c r="C3">
-        <v>1030</v>
+        <v>269</v>
       </c>
       <c r="D3" s="2">
-        <v>37499.749990960503</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4.57402837231683</v>
+        <v>37499.749999962303</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.28701418621054</v>
       </c>
       <c r="F3">
         <v>-0.12493873660829995</v>
@@ -1050,16 +1048,16 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>8514</v>
+        <v>2178</v>
       </c>
       <c r="C4">
-        <v>4101</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6643.9114701749904</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3.8224238368632402</v>
+        <v>1030</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25444.2596539898</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.2027949094112</v>
       </c>
       <c r="F4">
         <v>-0.42596873227228116</v>
@@ -1069,189 +1067,52 @@
       <c r="A5" s="1">
         <v>64</v>
       </c>
+      <c r="B5">
+        <v>8450</v>
+      </c>
+      <c r="C5">
+        <v>4101</v>
+      </c>
+      <c r="D5" s="2">
+        <v>31579.215258497999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.24970066680797</v>
+      </c>
       <c r="F5">
         <v>-0.7269987279362623</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>594</v>
-      </c>
-      <c r="C8">
-        <v>336</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2.1997712291374599E-4</v>
-      </c>
-      <c r="E8">
-        <v>-3.6576224824002002</v>
-      </c>
-      <c r="F8">
-        <v>0.17609125905568124</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>2210</v>
-      </c>
-      <c r="C9">
-        <v>1185</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3.0250135995346901E-3</v>
-      </c>
-      <c r="E9">
-        <v>-2.5192726685521398</v>
-      </c>
-      <c r="F9">
-        <v>-0.12493873660829995</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>-0.42596873227228116</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>-0.7269987279362623</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>162</v>
-      </c>
-      <c r="C14">
-        <v>68</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.12667790463796</v>
-      </c>
-      <c r="E14">
-        <v>5.1799777420045399E-2</v>
-      </c>
-      <c r="F14">
-        <v>0.17609125905568124</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>587</v>
-      </c>
-      <c r="C15">
-        <v>269</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7.5919783243575703</v>
-      </c>
-      <c r="E15">
-        <v>0.88035495947912301</v>
-      </c>
-      <c r="F15">
-        <v>-0.12493873660829995</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>2178</v>
-      </c>
-      <c r="C16">
-        <v>1030</v>
-      </c>
-      <c r="D16" s="8">
-        <v>103.922036596008</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.01670764916717</v>
-      </c>
-      <c r="F16">
-        <v>-0.42596873227228116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>64</v>
-      </c>
-      <c r="B17">
-        <v>8450</v>
-      </c>
-      <c r="C17">
-        <v>4102</v>
-      </c>
-      <c r="D17" s="8">
-        <v>79.147110008831007</v>
-      </c>
-      <c r="E17">
-        <v>1.89843506158458</v>
-      </c>
-      <c r="F17">
-        <v>-0.7269987279362623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>162</v>
-      </c>
-      <c r="C20">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>587</v>
-      </c>
-      <c r="C21">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>2178</v>
-      </c>
-      <c r="C22">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>64</v>
-      </c>
-      <c r="B23">
-        <v>8450</v>
-      </c>
-      <c r="C23">
-        <v>4102</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
